--- a/module14/Final_Project/CompressionVSTime.xlsx
+++ b/module14/Final_Project/CompressionVSTime.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wilson/Documents/intro_GPU/EN605.617/module14/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ABEB89-E0D7-384D-9AC0-3A5F50290CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26010605-277D-4D40-AEF5-DD48286CF990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{6F93EAA9-097B-9146-ADC9-7F0B6EF4B4BC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13660" xr2:uid="{6F93EAA9-097B-9146-ADC9-7F0B6EF4B4BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4:$C$18</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -250,6 +257,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -265,19 +273,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,7 +338,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>OpenCL kernel vs Time</a:t>
+              <a:t>Compression vs Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1920,18 +1927,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2122,16 +2129,16 @@
         <f>AVERAGE(C4:C18)</f>
         <v>2.7893553333333334</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="8">
         <f>C19/B19</f>
         <v>232.56074934662286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23"/>
